--- a/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Number of registered entities by kind of economic activity.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Number of registered entities by kind of economic activity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\რეზერვი დამთავრებულები მაჩვენ\ბიზნეს რეგისტრი ქარ. EN\Number of registered entities by kind of economic activity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="103">
   <si>
     <t>(Unit)</t>
   </si>
@@ -332,6 +332,29 @@
   <si>
     <t>Number of entities registered in Georgia by kind of economic activity</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data is confidential or unavailable.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +364,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +407,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -460,11 +504,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -518,6 +571,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,9 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1611"/>
+  <dimension ref="A1:W1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -811,21 +875,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -854,7 +918,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -66824,7 +66888,18 @@
       </c>
       <c r="N1611" s="17"/>
     </row>
+    <row r="1612" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1612" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1612" s="26"/>
+      <c r="C1612" s="26"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1612:C1612"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
